--- a/uploads/formatexcel_test.xlsx
+++ b/uploads/formatexcel_test.xlsx
@@ -432,7 +432,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/uploads/formatexcel_test.xlsx
+++ b/uploads/formatexcel_test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>ID_Employee</t>
   </si>
@@ -42,9 +42,6 @@
     <t>pat</t>
   </si>
   <si>
-    <t>rueng</t>
-  </si>
-  <si>
     <t>example123E$</t>
   </si>
   <si>
@@ -54,7 +51,25 @@
     <t>test@gmail.com</t>
   </si>
   <si>
-    <t>099</t>
+    <t>x99</t>
+  </si>
+  <si>
+    <t>x11</t>
+  </si>
+  <si>
+    <t>awd</t>
+  </si>
+  <si>
+    <t>dawd</t>
+  </si>
+  <si>
+    <t>dawd@gmail.com</t>
+  </si>
+  <si>
+    <t>dwadawd</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -119,7 +134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -127,6 +142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -429,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -470,33 +486,57 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
